--- a/data/gold_1994-2023.xlsx
+++ b/data/gold_1994-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Bu Lina\Gold Price Prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477A716-447B-4C2D-98D5-485D53C3B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436D495-763D-4DE0-894C-A1291A6E0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{0E9AB486-7743-46CE-B949-B5D8DF879F80}"/>
   </bookViews>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5428F51F-6277-4C5D-AAA2-6D847670BBC0}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -496,7 +496,7 @@
     <col min="16" max="16" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -543,12 +543,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1994</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="4">
+        <v>384.01</v>
       </c>
       <c r="C2" s="1">
         <v>4.21</v>
@@ -590,7 +590,7 @@
         <v>5.2002416666700002</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -637,7 +637,7 @@
         <v>5.2012999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -684,7 +684,7 @@
         <v>4.9060333333299999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -731,7 +731,7 @@
         <v>5.5507916666700003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -778,7 +778,7 @@
         <v>5.21545833333</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4.9532416666700003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -872,7 +872,7 @@
         <v>4.3760000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -919,7 +919,7 @@
         <v>4.6010499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -966,7 +966,7 @@
         <v>4.8762416666700004</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>6.6578666666700004</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>7.3083666666699996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>11.559233333330001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>13.391975</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1200,8 +1200,11 @@
       <c r="O15" s="5">
         <v>14.996533333329999</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2008</v>
       </c>
